--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43767,6 +43767,43 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43804,6 +43804,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,6 +43841,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43878,6 +43878,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43915,6 +43915,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43950,6 +43950,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43987,6 +43987,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44024,6 +44024,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44061,6 +44061,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>57500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44096,6 +44096,43 @@
         <v>57500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44133,6 +44133,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44170,6 +44170,80 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44244,6 +44244,80 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44318,6 +44318,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44353,6 +44353,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44390,6 +44390,43 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44427,6 +44427,43 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44464,6 +44464,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44499,6 +44499,43 @@
         <v>2800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44536,6 +44536,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1900"/>
+  <dimension ref="A1:I1901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67846,6 +67846,43 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1901" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1901" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1901" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1901" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1901"/>
+  <dimension ref="A1:I1902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67883,6 +67883,43 @@
         </is>
       </c>
     </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1902" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1902" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1902" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1902" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1902"/>
+  <dimension ref="A1:I1903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67920,6 +67920,41 @@
         </is>
       </c>
     </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1903" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1903" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1903" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1903" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1903"/>
+  <dimension ref="A1:I1904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67955,6 +67955,43 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1904" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1904" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1904" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1904" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1904"/>
+  <dimension ref="A1:I1905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67992,6 +67992,41 @@
         </is>
       </c>
     </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1905" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1905" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1905" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1905" t="n">
+        <v>13600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1905"/>
+  <dimension ref="A1:I1906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68027,6 +68027,41 @@
         <v>13600</v>
       </c>
     </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1906" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1906" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1906" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1906" t="n">
+        <v>12300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1906"/>
+  <dimension ref="A1:I1907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68062,6 +68062,41 @@
         <v>12300</v>
       </c>
     </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1907" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G1907" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1907" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1907" t="n">
+        <v>64200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1907"/>
+  <dimension ref="A1:I1908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68097,6 +68097,41 @@
         <v>64200</v>
       </c>
     </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1908" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1908" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1908" t="n">
+        <v>21200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1908"/>
+  <dimension ref="A1:I1909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68132,6 +68132,41 @@
         <v>21200</v>
       </c>
     </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1909" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1909" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1909" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1909" t="n">
+        <v>23900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1909"/>
+  <dimension ref="A1:I1910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68167,6 +68167,41 @@
         <v>23900</v>
       </c>
     </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1910" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1910" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1910" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1910" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1910"/>
+  <dimension ref="A1:I1911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68202,6 +68202,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1911" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1911" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1911" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1911" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1911"/>
+  <dimension ref="A1:I1912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68239,6 +68239,41 @@
         </is>
       </c>
     </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1912" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1912" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1912" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1912" t="n">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1912"/>
+  <dimension ref="A1:I1913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68274,6 +68274,43 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1913" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1913" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1913" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1913" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1913"/>
+  <dimension ref="A1:I1914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68311,6 +68311,43 @@
         </is>
       </c>
     </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1914" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1914" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1914" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1914" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1914"/>
+  <dimension ref="A1:I1915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68348,6 +68348,43 @@
         </is>
       </c>
     </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E1915" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1915" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1915" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1915" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2878"/>
+  <dimension ref="A1:I2879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102090,6 +102090,41 @@
         </is>
       </c>
     </row>
+    <row r="2879">
+      <c r="A2879" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2879" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2879" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2879" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F2879" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G2879" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H2879" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I2879" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2879"/>
+  <dimension ref="A1:I2880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102125,6 +102125,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2880">
+      <c r="A2880" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2880" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2880" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2880" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2880" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G2880" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H2880" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I2880" t="n">
+        <v>18800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2880"/>
+  <dimension ref="A1:I2881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102160,6 +102160,41 @@
         <v>18800</v>
       </c>
     </row>
+    <row r="2881">
+      <c r="A2881" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2881" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2881" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2881" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2881" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2881" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H2881" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2881" t="n">
+        <v>21200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2881"/>
+  <dimension ref="A1:I2882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102195,6 +102195,41 @@
         <v>21200</v>
       </c>
     </row>
+    <row r="2882">
+      <c r="A2882" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2882" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2882" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2882" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2882" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2882" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2882" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2882" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2882" t="n">
+        <v>12100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2882"/>
+  <dimension ref="A1:I2883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102230,6 +102230,43 @@
         <v>12100</v>
       </c>
     </row>
+    <row r="2883">
+      <c r="A2883" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2883" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2883" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2883" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2883" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2883" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2883" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H2883" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2883" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2883"/>
+  <dimension ref="A1:I2884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102267,6 +102267,41 @@
         </is>
       </c>
     </row>
+    <row r="2884">
+      <c r="A2884" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2884" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2884" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2884" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2884" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2884" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2884" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H2884" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I2884" t="n">
+        <v>6500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2884"/>
+  <dimension ref="A1:I2885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102302,6 +102302,43 @@
         <v>6500</v>
       </c>
     </row>
+    <row r="2885">
+      <c r="A2885" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2885" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2885" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2885" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2885" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G2885" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2885" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I2885" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2885"/>
+  <dimension ref="A1:I2886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102339,6 +102339,41 @@
         </is>
       </c>
     </row>
+    <row r="2886">
+      <c r="A2886" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2886" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2886" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2886" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2886" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2886" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2886" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2886" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2886" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2886"/>
+  <dimension ref="A1:I2887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102374,6 +102374,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="2887">
+      <c r="A2887" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2887" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2887" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2887" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2887" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2887" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2887" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2887" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2887" t="n">
+        <v>27900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2887"/>
+  <dimension ref="A1:I2888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102409,6 +102409,43 @@
         <v>27900</v>
       </c>
     </row>
+    <row r="2888">
+      <c r="A2888" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2888" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2888" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2888" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2888" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2888" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2888" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2888" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2888" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2888"/>
+  <dimension ref="A1:I2890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102446,6 +102446,76 @@
         </is>
       </c>
     </row>
+    <row r="2889">
+      <c r="A2889" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2889" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2889" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2889" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2889" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2889" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2889" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2889" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2889" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2890" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2890" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2890" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2890" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2890" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2890" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2890" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2890" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2890"/>
+  <dimension ref="A1:I2891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102516,6 +102516,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2891">
+      <c r="A2891" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2891" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2891" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2891" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2891" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2891" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2891" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2891" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2891" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2891"/>
+  <dimension ref="A1:I2894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102551,6 +102551,117 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="2892">
+      <c r="A2892" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2892" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2892" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2892" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2892" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2892" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2892" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2892" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2893" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2893" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2893" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2893" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2893" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2893" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2893" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2894" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2894" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2894" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2894" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2894" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2894" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2894" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2894" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2894"/>
+  <dimension ref="A1:I2895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102662,6 +102662,43 @@
         </is>
       </c>
     </row>
+    <row r="2895">
+      <c r="A2895" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2895" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2895" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2895" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2895" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2895" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2895" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2895" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2895"/>
+  <dimension ref="A1:I2896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102699,6 +102699,43 @@
         </is>
       </c>
     </row>
+    <row r="2896">
+      <c r="A2896" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2896" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2896" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2896" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2896" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2896" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2896" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2896" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2896" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5049.xlsx
+++ b/data/5049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2896"/>
+  <dimension ref="A1:I2899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102736,6 +102736,115 @@
         </is>
       </c>
     </row>
+    <row r="2897">
+      <c r="A2897" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2897" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2897" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2897" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2897" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F2897" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2897" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H2897" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2897" t="n">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2898" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2898" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2898" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2898" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2898" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2898" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2898" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2899" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="D2899" t="inlineStr">
+        <is>
+          <t>CVIEW</t>
+        </is>
+      </c>
+      <c r="E2899" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2899" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2899" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2899" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2899" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
